--- a/examples/File_Selection.xlsx
+++ b/examples/File_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gold\github\aelcha-package\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CC7503-DA8A-43AD-8A3A-54027DDC3705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798788F-EC3B-4081-A52F-3C6C0B850FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="4065" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8652" yWindow="4428" windowWidth="32688" windowHeight="18648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Selection" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>Input directory</t>
   </si>
@@ -454,9 +454,6 @@
     <t>,</t>
   </si>
   <si>
-    <t>MP_MH_E60_1_1z 180618.059</t>
-  </si>
-  <si>
     <t>E60_1_1z</t>
   </si>
   <si>
@@ -616,7 +613,28 @@
     <t>Rated, nominal or theoretical capacity / mAh</t>
   </si>
   <si>
-    <t>Source type. Accepted values: -11 (Maccor raw files), 10 (MIMS client v1 export), 11 (MaccorExport.exe v1), 12 (MaccorExport.exe v2), 13 (MIMS client v1 export), 14 (MIMS server v2 export), 20 (Digatron german client csv export)</t>
+    <t>Some name</t>
+  </si>
+  <si>
+    <t>231004_test_data_raw.024</t>
+  </si>
+  <si>
+    <t>C:\Users\gold\github\maccor-utility\test_data</t>
+  </si>
+  <si>
+    <t>Source type. Accepted values: -11 (Maccor raw files), 10 (MIMS client v1 export), 11 (MaccorExport.exe v1), 12 (MaccorExport.exe v2), 13 (MIMS client v2 export), 14 (MIMS server v2 export), 20 (Digatron german client csv export)</t>
+  </si>
+  <si>
+    <t>MP_MH_E60_1_1z 180618.059.txt</t>
+  </si>
+  <si>
+    <t>C:\Users\gold\github\aelcha-package\examples</t>
+  </si>
+  <si>
+    <t>MP_MH_E62_1_4f 180720 - 080_maccor_export_v1.txt</t>
+  </si>
+  <si>
+    <t>E62_1_4f</t>
   </si>
 </sst>
 </file>
@@ -1465,40 +1483,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1523,8 +1544,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1541,6 +1560,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1551,40 +1572,37 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1942,91 +1960,91 @@
   </sheetPr>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:T6"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="55" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="54" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="54" customWidth="1"/>
-    <col min="8" max="9" width="8.5703125" style="54" customWidth="1"/>
-    <col min="10" max="15" width="4.7109375" style="54" customWidth="1"/>
-    <col min="16" max="17" width="8.5703125" style="54" customWidth="1"/>
-    <col min="18" max="19" width="4.7109375" style="69" customWidth="1"/>
-    <col min="20" max="20" width="71.42578125" style="54" customWidth="1"/>
-    <col min="21" max="16384" width="11.5703125" style="54"/>
+    <col min="1" max="1" width="4.6640625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="54" customWidth="1"/>
+    <col min="8" max="9" width="8.5546875" style="54" customWidth="1"/>
+    <col min="10" max="15" width="4.6640625" style="54" customWidth="1"/>
+    <col min="16" max="17" width="8.5546875" style="54" customWidth="1"/>
+    <col min="18" max="19" width="4.6640625" style="69" customWidth="1"/>
+    <col min="20" max="20" width="71.44140625" style="54" customWidth="1"/>
+    <col min="21" max="16384" width="11.5546875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="54" t="s">
+      <c r="E1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="F1" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>87</v>
-      </c>
       <c r="H1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="J1" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="L1" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="O1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="P1" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="Q1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="R1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="S1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="T1" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
         <v>49</v>
       </c>
@@ -2050,7 +2068,7 @@
       <c r="S2" s="105"/>
       <c r="T2" s="105"/>
     </row>
-    <row r="3" spans="1:20" ht="328.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="328.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
@@ -2067,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>28</v>
@@ -2079,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="61" t="s">
         <v>6</v>
@@ -2112,7 +2130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62">
         <v>0</v>
       </c>
@@ -2174,21 +2192,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62">
         <v>1</v>
       </c>
       <c r="B5" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>51</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>52</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="48">
@@ -2231,58 +2249,130 @@
         <v>1</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>2</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
+      <c r="B6" s="47">
+        <v>0</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3</v>
+      </c>
+      <c r="G6" s="48">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="50">
+        <v>1</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1</v>
+      </c>
+      <c r="L6" s="47">
+        <v>1</v>
+      </c>
+      <c r="M6" s="47">
+        <v>1</v>
+      </c>
+      <c r="N6" s="47">
+        <v>1</v>
+      </c>
+      <c r="O6" s="47">
+        <v>1</v>
+      </c>
+      <c r="P6" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>1</v>
+      </c>
+      <c r="R6" s="51">
+        <v>5</v>
+      </c>
+      <c r="S6" s="51">
+        <v>1</v>
+      </c>
       <c r="T6" s="52"/>
     </row>
-    <row r="7" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>111</v>
+      </c>
       <c r="F7" s="46"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="52"/>
-    </row>
-    <row r="8" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="48">
+        <v>0</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="50">
+        <v>1</v>
+      </c>
+      <c r="K7" s="47">
+        <v>1</v>
+      </c>
+      <c r="L7" s="47">
+        <v>1</v>
+      </c>
+      <c r="M7" s="47">
+        <v>1</v>
+      </c>
+      <c r="N7" s="47">
+        <v>1</v>
+      </c>
+      <c r="O7" s="47">
+        <v>1</v>
+      </c>
+      <c r="P7" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>1</v>
+      </c>
+      <c r="R7" s="51">
+        <v>5</v>
+      </c>
+      <c r="S7" s="51">
+        <v>1</v>
+      </c>
+      <c r="T7" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>4</v>
       </c>
@@ -2306,7 +2396,7 @@
       <c r="S8" s="51"/>
       <c r="T8" s="52"/>
     </row>
-    <row r="9" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>5</v>
       </c>
@@ -2330,7 +2420,7 @@
       <c r="S9" s="51"/>
       <c r="T9" s="52"/>
     </row>
-    <row r="10" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>6</v>
       </c>
@@ -2354,7 +2444,7 @@
       <c r="S10" s="51"/>
       <c r="T10" s="52"/>
     </row>
-    <row r="11" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
         <v>7</v>
       </c>
@@ -2378,7 +2468,7 @@
       <c r="S11" s="51"/>
       <c r="T11" s="52"/>
     </row>
-    <row r="12" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <v>8</v>
       </c>
@@ -2402,7 +2492,7 @@
       <c r="S12" s="51"/>
       <c r="T12" s="52"/>
     </row>
-    <row r="13" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>9</v>
       </c>
@@ -2426,7 +2516,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="52"/>
     </row>
-    <row r="14" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>10</v>
       </c>
@@ -2450,7 +2540,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="52"/>
     </row>
-    <row r="15" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>11</v>
       </c>
@@ -2474,7 +2564,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="52"/>
     </row>
-    <row r="16" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>12</v>
       </c>
@@ -2498,7 +2588,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="52"/>
     </row>
-    <row r="17" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>13</v>
       </c>
@@ -2522,7 +2612,7 @@
       <c r="S17" s="51"/>
       <c r="T17" s="52"/>
     </row>
-    <row r="18" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>14</v>
       </c>
@@ -2546,7 +2636,7 @@
       <c r="S18" s="51"/>
       <c r="T18" s="52"/>
     </row>
-    <row r="19" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>15</v>
       </c>
@@ -2570,7 +2660,7 @@
       <c r="S19" s="51"/>
       <c r="T19" s="52"/>
     </row>
-    <row r="20" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>16</v>
       </c>
@@ -2594,7 +2684,7 @@
       <c r="S20" s="51"/>
       <c r="T20" s="52"/>
     </row>
-    <row r="21" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>17</v>
       </c>
@@ -2618,7 +2708,7 @@
       <c r="S21" s="51"/>
       <c r="T21" s="52"/>
     </row>
-    <row r="22" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>18</v>
       </c>
@@ -2642,7 +2732,7 @@
       <c r="S22" s="51"/>
       <c r="T22" s="52"/>
     </row>
-    <row r="23" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>19</v>
       </c>
@@ -2666,7 +2756,7 @@
       <c r="S23" s="51"/>
       <c r="T23" s="52"/>
     </row>
-    <row r="24" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>20</v>
       </c>
@@ -2690,7 +2780,7 @@
       <c r="S24" s="51"/>
       <c r="T24" s="52"/>
     </row>
-    <row r="25" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>21</v>
       </c>
@@ -2714,7 +2804,7 @@
       <c r="S25" s="51"/>
       <c r="T25" s="52"/>
     </row>
-    <row r="26" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="62">
         <v>22</v>
       </c>
@@ -2738,7 +2828,7 @@
       <c r="S26" s="51"/>
       <c r="T26" s="52"/>
     </row>
-    <row r="27" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="62">
         <v>23</v>
       </c>
@@ -2762,7 +2852,7 @@
       <c r="S27" s="51"/>
       <c r="T27" s="52"/>
     </row>
-    <row r="28" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>24</v>
       </c>
@@ -2786,7 +2876,7 @@
       <c r="S28" s="51"/>
       <c r="T28" s="52"/>
     </row>
-    <row r="29" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>25</v>
       </c>
@@ -2810,7 +2900,7 @@
       <c r="S29" s="51"/>
       <c r="T29" s="52"/>
     </row>
-    <row r="30" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>26</v>
       </c>
@@ -2834,7 +2924,7 @@
       <c r="S30" s="51"/>
       <c r="T30" s="52"/>
     </row>
-    <row r="31" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>27</v>
       </c>
@@ -2858,7 +2948,7 @@
       <c r="S31" s="51"/>
       <c r="T31" s="52"/>
     </row>
-    <row r="32" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>28</v>
       </c>
@@ -2882,7 +2972,7 @@
       <c r="S32" s="51"/>
       <c r="T32" s="52"/>
     </row>
-    <row r="33" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62">
         <v>29</v>
       </c>
@@ -2906,7 +2996,7 @@
       <c r="S33" s="51"/>
       <c r="T33" s="52"/>
     </row>
-    <row r="34" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="62">
         <v>30</v>
       </c>
@@ -2930,7 +3020,7 @@
       <c r="S34" s="51"/>
       <c r="T34" s="52"/>
     </row>
-    <row r="35" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>31</v>
       </c>
@@ -2954,7 +3044,7 @@
       <c r="S35" s="51"/>
       <c r="T35" s="52"/>
     </row>
-    <row r="36" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62">
         <v>32</v>
       </c>
@@ -2978,7 +3068,7 @@
       <c r="S36" s="51"/>
       <c r="T36" s="52"/>
     </row>
-    <row r="37" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="62">
         <v>33</v>
       </c>
@@ -3002,7 +3092,7 @@
       <c r="S37" s="51"/>
       <c r="T37" s="52"/>
     </row>
-    <row r="38" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="62">
         <v>34</v>
       </c>
@@ -3026,7 +3116,7 @@
       <c r="S38" s="51"/>
       <c r="T38" s="52"/>
     </row>
-    <row r="39" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="62">
         <v>35</v>
       </c>
@@ -3050,7 +3140,7 @@
       <c r="S39" s="51"/>
       <c r="T39" s="52"/>
     </row>
-    <row r="40" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62">
         <v>36</v>
       </c>
@@ -3074,7 +3164,7 @@
       <c r="S40" s="51"/>
       <c r="T40" s="52"/>
     </row>
-    <row r="41" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62">
         <v>37</v>
       </c>
@@ -3098,7 +3188,7 @@
       <c r="S41" s="51"/>
       <c r="T41" s="52"/>
     </row>
-    <row r="42" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62">
         <v>38</v>
       </c>
@@ -3122,7 +3212,7 @@
       <c r="S42" s="51"/>
       <c r="T42" s="52"/>
     </row>
-    <row r="43" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62">
         <v>39</v>
       </c>
@@ -3146,7 +3236,7 @@
       <c r="S43" s="51"/>
       <c r="T43" s="52"/>
     </row>
-    <row r="44" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="62">
         <v>40</v>
       </c>
@@ -3170,7 +3260,7 @@
       <c r="S44" s="51"/>
       <c r="T44" s="52"/>
     </row>
-    <row r="45" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="62">
         <v>41</v>
       </c>
@@ -3194,7 +3284,7 @@
       <c r="S45" s="51"/>
       <c r="T45" s="52"/>
     </row>
-    <row r="46" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="62">
         <v>42</v>
       </c>
@@ -3218,7 +3308,7 @@
       <c r="S46" s="51"/>
       <c r="T46" s="52"/>
     </row>
-    <row r="47" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="62">
         <v>43</v>
       </c>
@@ -3242,7 +3332,7 @@
       <c r="S47" s="51"/>
       <c r="T47" s="52"/>
     </row>
-    <row r="48" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62">
         <v>44</v>
       </c>
@@ -3266,7 +3356,7 @@
       <c r="S48" s="51"/>
       <c r="T48" s="52"/>
     </row>
-    <row r="49" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="62">
         <v>45</v>
       </c>
@@ -3290,7 +3380,7 @@
       <c r="S49" s="51"/>
       <c r="T49" s="52"/>
     </row>
-    <row r="50" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="62">
         <v>46</v>
       </c>
@@ -3314,7 +3404,7 @@
       <c r="S50" s="51"/>
       <c r="T50" s="52"/>
     </row>
-    <row r="51" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="62">
         <v>47</v>
       </c>
@@ -3338,7 +3428,7 @@
       <c r="S51" s="51"/>
       <c r="T51" s="52"/>
     </row>
-    <row r="52" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="62">
         <v>48</v>
       </c>
@@ -3362,7 +3452,7 @@
       <c r="S52" s="51"/>
       <c r="T52" s="52"/>
     </row>
-    <row r="53" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62">
         <v>49</v>
       </c>
@@ -3386,7 +3476,7 @@
       <c r="S53" s="51"/>
       <c r="T53" s="52"/>
     </row>
-    <row r="54" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="62">
         <v>50</v>
       </c>
@@ -3410,7 +3500,7 @@
       <c r="S54" s="51"/>
       <c r="T54" s="52"/>
     </row>
-    <row r="55" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62">
         <v>51</v>
       </c>
@@ -3434,7 +3524,7 @@
       <c r="S55" s="51"/>
       <c r="T55" s="52"/>
     </row>
-    <row r="56" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="62">
         <v>52</v>
       </c>
@@ -3458,7 +3548,7 @@
       <c r="S56" s="51"/>
       <c r="T56" s="52"/>
     </row>
-    <row r="57" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="62">
         <v>53</v>
       </c>
@@ -3482,7 +3572,7 @@
       <c r="S57" s="51"/>
       <c r="T57" s="52"/>
     </row>
-    <row r="58" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="62">
         <v>54</v>
       </c>
@@ -3506,7 +3596,7 @@
       <c r="S58" s="51"/>
       <c r="T58" s="52"/>
     </row>
-    <row r="59" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="62">
         <v>55</v>
       </c>
@@ -3530,7 +3620,7 @@
       <c r="S59" s="51"/>
       <c r="T59" s="52"/>
     </row>
-    <row r="60" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="62">
         <v>56</v>
       </c>
@@ -3554,7 +3644,7 @@
       <c r="S60" s="51"/>
       <c r="T60" s="52"/>
     </row>
-    <row r="61" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="62">
         <v>57</v>
       </c>
@@ -3578,7 +3668,7 @@
       <c r="S61" s="51"/>
       <c r="T61" s="52"/>
     </row>
-    <row r="62" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="62">
         <v>58</v>
       </c>
@@ -3602,7 +3692,7 @@
       <c r="S62" s="51"/>
       <c r="T62" s="52"/>
     </row>
-    <row r="63" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="62">
         <v>59</v>
       </c>
@@ -3626,7 +3716,7 @@
       <c r="S63" s="51"/>
       <c r="T63" s="52"/>
     </row>
-    <row r="64" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="62">
         <v>60</v>
       </c>
@@ -3650,7 +3740,7 @@
       <c r="S64" s="51"/>
       <c r="T64" s="52"/>
     </row>
-    <row r="65" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="62">
         <v>61</v>
       </c>
@@ -3674,7 +3764,7 @@
       <c r="S65" s="51"/>
       <c r="T65" s="52"/>
     </row>
-    <row r="66" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="62">
         <v>62</v>
       </c>
@@ -3698,7 +3788,7 @@
       <c r="S66" s="51"/>
       <c r="T66" s="52"/>
     </row>
-    <row r="67" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="62">
         <v>63</v>
       </c>
@@ -3722,7 +3812,7 @@
       <c r="S67" s="51"/>
       <c r="T67" s="52"/>
     </row>
-    <row r="68" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="62">
         <v>64</v>
       </c>
@@ -3746,7 +3836,7 @@
       <c r="S68" s="51"/>
       <c r="T68" s="52"/>
     </row>
-    <row r="69" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="62">
         <v>65</v>
       </c>
@@ -3770,7 +3860,7 @@
       <c r="S69" s="51"/>
       <c r="T69" s="52"/>
     </row>
-    <row r="70" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="62">
         <v>66</v>
       </c>
@@ -3794,7 +3884,7 @@
       <c r="S70" s="51"/>
       <c r="T70" s="52"/>
     </row>
-    <row r="71" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="62">
         <v>67</v>
       </c>
@@ -3818,7 +3908,7 @@
       <c r="S71" s="51"/>
       <c r="T71" s="52"/>
     </row>
-    <row r="72" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="62">
         <v>68</v>
       </c>
@@ -3842,7 +3932,7 @@
       <c r="S72" s="51"/>
       <c r="T72" s="52"/>
     </row>
-    <row r="73" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="62">
         <v>69</v>
       </c>
@@ -3866,7 +3956,7 @@
       <c r="S73" s="51"/>
       <c r="T73" s="52"/>
     </row>
-    <row r="74" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="62">
         <v>70</v>
       </c>
@@ -3890,7 +3980,7 @@
       <c r="S74" s="51"/>
       <c r="T74" s="52"/>
     </row>
-    <row r="75" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="62">
         <v>71</v>
       </c>
@@ -3914,7 +4004,7 @@
       <c r="S75" s="51"/>
       <c r="T75" s="52"/>
     </row>
-    <row r="76" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="62">
         <v>72</v>
       </c>
@@ -3938,7 +4028,7 @@
       <c r="S76" s="51"/>
       <c r="T76" s="52"/>
     </row>
-    <row r="77" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="62">
         <v>73</v>
       </c>
@@ -3962,7 +4052,7 @@
       <c r="S77" s="51"/>
       <c r="T77" s="52"/>
     </row>
-    <row r="78" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="62">
         <v>74</v>
       </c>
@@ -3986,7 +4076,7 @@
       <c r="S78" s="51"/>
       <c r="T78" s="52"/>
     </row>
-    <row r="79" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="62">
         <v>75</v>
       </c>
@@ -4010,7 +4100,7 @@
       <c r="S79" s="51"/>
       <c r="T79" s="52"/>
     </row>
-    <row r="80" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="62">
         <v>76</v>
       </c>
@@ -4034,7 +4124,7 @@
       <c r="S80" s="51"/>
       <c r="T80" s="52"/>
     </row>
-    <row r="81" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="62">
         <v>77</v>
       </c>
@@ -4058,7 +4148,7 @@
       <c r="S81" s="51"/>
       <c r="T81" s="52"/>
     </row>
-    <row r="82" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="62">
         <v>78</v>
       </c>
@@ -4082,7 +4172,7 @@
       <c r="S82" s="51"/>
       <c r="T82" s="52"/>
     </row>
-    <row r="83" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="62">
         <v>79</v>
       </c>
@@ -4106,7 +4196,7 @@
       <c r="S83" s="51"/>
       <c r="T83" s="52"/>
     </row>
-    <row r="84" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="62">
         <v>80</v>
       </c>
@@ -4130,7 +4220,7 @@
       <c r="S84" s="51"/>
       <c r="T84" s="52"/>
     </row>
-    <row r="85" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="62">
         <v>81</v>
       </c>
@@ -4154,7 +4244,7 @@
       <c r="S85" s="51"/>
       <c r="T85" s="52"/>
     </row>
-    <row r="86" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="62">
         <v>82</v>
       </c>
@@ -4178,7 +4268,7 @@
       <c r="S86" s="51"/>
       <c r="T86" s="52"/>
     </row>
-    <row r="87" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="62">
         <v>83</v>
       </c>
@@ -4202,7 +4292,7 @@
       <c r="S87" s="51"/>
       <c r="T87" s="52"/>
     </row>
-    <row r="88" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="62">
         <v>84</v>
       </c>
@@ -4226,7 +4316,7 @@
       <c r="S88" s="51"/>
       <c r="T88" s="52"/>
     </row>
-    <row r="89" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="62">
         <v>85</v>
       </c>
@@ -4250,7 +4340,7 @@
       <c r="S89" s="51"/>
       <c r="T89" s="52"/>
     </row>
-    <row r="90" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="62">
         <v>86</v>
       </c>
@@ -4274,7 +4364,7 @@
       <c r="S90" s="51"/>
       <c r="T90" s="52"/>
     </row>
-    <row r="91" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="62">
         <v>87</v>
       </c>
@@ -4298,7 +4388,7 @@
       <c r="S91" s="51"/>
       <c r="T91" s="52"/>
     </row>
-    <row r="92" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="62">
         <v>88</v>
       </c>
@@ -4322,7 +4412,7 @@
       <c r="S92" s="51"/>
       <c r="T92" s="52"/>
     </row>
-    <row r="93" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="62">
         <v>89</v>
       </c>
@@ -4346,7 +4436,7 @@
       <c r="S93" s="51"/>
       <c r="T93" s="52"/>
     </row>
-    <row r="94" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="62">
         <v>90</v>
       </c>
@@ -4370,7 +4460,7 @@
       <c r="S94" s="51"/>
       <c r="T94" s="52"/>
     </row>
-    <row r="95" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="62">
         <v>91</v>
       </c>
@@ -4394,7 +4484,7 @@
       <c r="S95" s="51"/>
       <c r="T95" s="52"/>
     </row>
-    <row r="96" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="62">
         <v>92</v>
       </c>
@@ -4418,7 +4508,7 @@
       <c r="S96" s="51"/>
       <c r="T96" s="52"/>
     </row>
-    <row r="97" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="62">
         <v>93</v>
       </c>
@@ -4442,7 +4532,7 @@
       <c r="S97" s="51"/>
       <c r="T97" s="52"/>
     </row>
-    <row r="98" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="62">
         <v>94</v>
       </c>
@@ -4466,7 +4556,7 @@
       <c r="S98" s="51"/>
       <c r="T98" s="52"/>
     </row>
-    <row r="99" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="62">
         <v>95</v>
       </c>
@@ -4490,7 +4580,7 @@
       <c r="S99" s="51"/>
       <c r="T99" s="52"/>
     </row>
-    <row r="100" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="62">
         <v>96</v>
       </c>
@@ -4514,7 +4604,7 @@
       <c r="S100" s="51"/>
       <c r="T100" s="52"/>
     </row>
-    <row r="101" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="62">
         <v>97</v>
       </c>
@@ -4538,7 +4628,7 @@
       <c r="S101" s="51"/>
       <c r="T101" s="52"/>
     </row>
-    <row r="102" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="62">
         <v>98</v>
       </c>
@@ -4562,7 +4652,7 @@
       <c r="S102" s="51"/>
       <c r="T102" s="52"/>
     </row>
-    <row r="103" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="62">
         <v>99</v>
       </c>
@@ -4586,7 +4676,7 @@
       <c r="S103" s="51"/>
       <c r="T103" s="52"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="62">
         <v>100</v>
       </c>
@@ -4616,7 +4706,7 @@
     <mergeCell ref="A2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B104:B1048576 H3 K3:P4 H21:H22 K21:P22 B3:B5 K24:P1048576 M23:P23 H24:H1048576 B9:B12">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4626,7 +4716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q4 Q21:Q1048576">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4638,7 +4728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S4 R21:S1048576">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4648,7 +4738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P4 P21:P1048576">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="10"/>
@@ -4658,7 +4748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B103">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4668,6 +4758,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H20 K9:P20">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4677,18 +4777,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H20 K9:P20">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q20">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4700,7 +4790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:S20">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4710,7 +4800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P20">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="10"/>
@@ -4720,7 +4810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L23 H23">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4730,7 +4820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B34">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4740,6 +4830,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:P5">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4749,18 +4849,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:P5 K7:P7">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5 Q7">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4771,8 +4861,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:S5 R7:S7">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="R5:S5">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4781,8 +4871,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5 P7">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="P5">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="10"/>
@@ -4792,7 +4882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4802,7 +4892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:P8">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4812,7 +4902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4824,7 +4914,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:S8">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4834,7 +4924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="10"/>
@@ -4844,7 +4934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4854,7 +4944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4863,7 +4953,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J5 J8:J104">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4873,8 +4973,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="K6:P6">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4883,7 +4983,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J5 J7:J104">
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="4"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color theme="3" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:S6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFC1"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4893,7 +5025,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:P6">
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:P7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4903,7 +5045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6">
+  <conditionalFormatting sqref="Q7">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4915,7 +5057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:S6">
+  <conditionalFormatting sqref="R7:S7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4925,7 +5067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
+  <conditionalFormatting sqref="P7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -4935,7 +5077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4945,7 +5087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4955,11 +5097,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{12949BE9-EEB1-43A3-A53A-C7DD24FC4860}"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="26" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="26" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4967,45 +5106,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>71</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="129"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="117"/>
       <c r="C3" s="22" t="s">
         <v>21</v>
       </c>
@@ -5013,47 +5152,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="131"/>
+    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="130"/>
       <c r="C4" s="70"/>
       <c r="D4" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="143"/>
+    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="144"/>
       <c r="C5" s="71"/>
       <c r="D5" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="133"/>
+    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="132"/>
       <c r="C6" s="72"/>
       <c r="D6" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="129"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="117"/>
       <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
@@ -5061,59 +5200,59 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="151"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="73"/>
       <c r="D9" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="153"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="115"/>
       <c r="C10" s="74">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="D10" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="147"/>
+    <row r="11" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="109"/>
       <c r="C11" s="75"/>
       <c r="D11" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="149"/>
+    <row r="12" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="111"/>
       <c r="C12" s="76"/>
       <c r="D12" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="129"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="117"/>
       <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
@@ -5121,57 +5260,57 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="135"/>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="134"/>
       <c r="C15" s="77"/>
       <c r="D15" s="36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="137"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="136"/>
       <c r="C16" s="78"/>
       <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="154" t="s">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="154"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="79"/>
       <c r="D17" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="155" t="s">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="156"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="80"/>
       <c r="D18" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="118" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="119"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="23" t="s">
         <v>21</v>
       </c>
@@ -5179,73 +5318,73 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="121"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="81"/>
       <c r="D21" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="144" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="144"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="82"/>
       <c r="D22" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="145"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="83"/>
       <c r="D23" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="108" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="108"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="84"/>
       <c r="D24" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="111" t="s">
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="119"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="138"/>
       <c r="C28" s="23" t="s">
         <v>21</v>
       </c>
@@ -5253,65 +5392,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="140" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="141"/>
+    <row r="29" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="142"/>
       <c r="C29" s="85"/>
       <c r="D29" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="113"/>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="152"/>
       <c r="C30" s="86"/>
       <c r="D30" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="115"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="154"/>
       <c r="C31" s="87"/>
       <c r="D31" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="116" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="117"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="88"/>
       <c r="D32" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="138" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="139"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="139" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="140"/>
       <c r="C33" s="89"/>
       <c r="D33" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -5323,7 +5462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>19</v>
       </c>
@@ -5337,7 +5476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>24</v>
       </c>
@@ -5347,7 +5486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -5357,7 +5496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
@@ -5367,7 +5506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>27</v>
       </c>
@@ -5377,7 +5516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>20</v>
       </c>
@@ -5391,9 +5530,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
@@ -5401,9 +5540,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
@@ -5411,9 +5550,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="102"/>
@@ -5421,9 +5560,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="103"/>
       <c r="C45" s="104"/>
@@ -5431,11 +5570,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="118" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="119"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="138"/>
       <c r="C47" s="23" t="s">
         <v>21</v>
       </c>
@@ -5443,74 +5582,74 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="122" t="s">
+    <row r="48" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="123"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="94"/>
       <c r="D48" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="124" t="s">
+    <row r="49" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="125"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="95"/>
       <c r="D49" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="126" t="s">
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="127"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="96"/>
       <c r="D50" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="106" t="s">
+    <row r="51" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="107"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="97"/>
       <c r="D51" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="110"/>
+    <row r="52" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="149"/>
       <c r="C52" s="98"/>
       <c r="D52" s="43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4C+sDhCOL/8aol+6atltVfauTx4Sn6lekuMxbhYODjVJoK7qruNe7HlGlaXUgqoJMaIMl+EpHV7kgoGckLS5+Q==" saltValue="kYp8t37Z1ut2RwQ/d4ljJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+G7Ib2womvoK60VKWfMsoOnOnHSZBPOF2t8fEiS714hI6y1Nq+KnxQjaD2qYQZSkXK9haaEIFf+mbabKOzqAkw==" saltValue="bUk+Dbz45DIX4zhYiGhzrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="34">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A48:B48"/>
@@ -5527,15 +5666,15 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/examples/File_Selection.xlsx
+++ b/examples/File_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gold\github\aelcha-package\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798788F-EC3B-4081-A52F-3C6C0B850FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C484812-9484-4982-8E84-119E3AB73FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8652" yWindow="4428" windowWidth="32688" windowHeight="18648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11028" yWindow="6900" windowWidth="28824" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Selection" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>Input directory</t>
   </si>
@@ -636,6 +636,12 @@
   <si>
     <t>E62_1_4f</t>
   </si>
+  <si>
+    <t>Path to the MacReadDataFileLIB.dll, used for reading Maccor raw files directly</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
@@ -741,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,6 +960,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,7 +1257,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
@@ -1290,16 +1302,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1389,9 +1392,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1480,21 +1480,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,16 +1534,28 @@
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,10 +1564,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1572,24 +1604,26 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,2744 +1995,2744 @@
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="69.88671875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="54" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="54" customWidth="1"/>
-    <col min="8" max="9" width="8.5546875" style="54" customWidth="1"/>
-    <col min="10" max="15" width="4.6640625" style="54" customWidth="1"/>
-    <col min="16" max="17" width="8.5546875" style="54" customWidth="1"/>
-    <col min="18" max="19" width="4.6640625" style="69" customWidth="1"/>
-    <col min="20" max="20" width="71.44140625" style="54" customWidth="1"/>
-    <col min="21" max="16384" width="11.5546875" style="54"/>
+    <col min="1" max="1" width="4.6640625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="51" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="51" customWidth="1"/>
+    <col min="8" max="9" width="8.5546875" style="51" customWidth="1"/>
+    <col min="10" max="15" width="4.6640625" style="51" customWidth="1"/>
+    <col min="16" max="17" width="8.5546875" style="51" customWidth="1"/>
+    <col min="18" max="19" width="4.6640625" style="66" customWidth="1"/>
+    <col min="20" max="20" width="71.44140625" style="51" customWidth="1"/>
+    <col min="21" max="16384" width="11.5546875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="53" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
     </row>
     <row r="3" spans="1:20" ht="328.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62">
+    <row r="4" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59">
         <v>0</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="60">
         <v>0</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="59">
         <v>3.2</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="61">
         <v>0</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="60">
         <v>0</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="63">
         <v>1</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="60">
         <v>1</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="60">
         <v>1</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="60">
         <v>1</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="60">
         <v>1</v>
       </c>
-      <c r="O4" s="63">
+      <c r="O4" s="60">
         <v>1</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="60">
         <v>2</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="60">
         <v>1</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="64">
         <v>5</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="64">
         <v>1</v>
       </c>
-      <c r="T4" s="68" t="s">
+      <c r="T4" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62">
+    <row r="5" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59">
         <v>1</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>0</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="48">
+      <c r="F5" s="43"/>
+      <c r="G5" s="45">
         <v>0</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="44">
         <v>0</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="47">
         <v>1</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="44">
         <v>1</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="44">
         <v>1</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="44">
         <v>1</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="44">
         <v>1</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="44">
         <v>1</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="44">
         <v>2</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="44">
         <v>1</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="48">
         <v>5</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="48">
         <v>1</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="T5" s="49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62">
+    <row r="6" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59">
         <v>2</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="44">
         <v>0</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="43">
         <v>3</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="45">
         <v>0</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="44">
         <v>0</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="47">
         <v>1</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="44">
         <v>1</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="44">
         <v>1</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="44">
         <v>1</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="44">
         <v>1</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="44">
         <v>1</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="44">
         <v>2</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="44">
         <v>1</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="48">
         <v>5</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="48">
         <v>1</v>
       </c>
-      <c r="T6" s="52"/>
-    </row>
-    <row r="7" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62">
+      <c r="T6" s="49"/>
+    </row>
+    <row r="7" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59">
         <v>3</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="44">
         <v>1</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="48">
+      <c r="F7" s="43"/>
+      <c r="G7" s="45">
         <v>0</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="44">
         <v>0</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="47">
         <v>1</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="44">
         <v>1</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="44">
         <v>1</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="44">
         <v>1</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="44">
         <v>1</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="44">
         <v>1</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="44">
         <v>2</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="44">
         <v>1</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="48">
         <v>5</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="48">
         <v>1</v>
       </c>
-      <c r="T7" s="52" t="s">
+      <c r="T7" s="49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62">
+    <row r="8" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="59">
         <v>4</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="52"/>
-    </row>
-    <row r="9" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62">
+      <c r="B8" s="44"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="49"/>
+    </row>
+    <row r="9" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="52"/>
-    </row>
-    <row r="10" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62">
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="49"/>
+    </row>
+    <row r="10" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59">
         <v>6</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="52"/>
-    </row>
-    <row r="11" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="49"/>
+    </row>
+    <row r="11" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="52"/>
-    </row>
-    <row r="12" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="49"/>
+    </row>
+    <row r="12" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59">
         <v>8</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
-    </row>
-    <row r="13" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62">
+      <c r="B12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49"/>
+    </row>
+    <row r="13" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59">
         <v>9</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="52"/>
-    </row>
-    <row r="14" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="49"/>
+    </row>
+    <row r="14" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59">
         <v>10</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
-    </row>
-    <row r="15" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62">
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="49"/>
+    </row>
+    <row r="15" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59">
         <v>11</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
-    </row>
-    <row r="16" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62">
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="49"/>
+    </row>
+    <row r="16" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59">
         <v>12</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
-    </row>
-    <row r="17" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="49"/>
+    </row>
+    <row r="17" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59">
         <v>13</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
-    </row>
-    <row r="18" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="49"/>
+    </row>
+    <row r="18" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59">
         <v>14</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="52"/>
-    </row>
-    <row r="19" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="49"/>
+    </row>
+    <row r="19" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59">
         <v>15</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
-    </row>
-    <row r="20" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="49"/>
+    </row>
+    <row r="20" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="59">
         <v>16</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="52"/>
-    </row>
-    <row r="21" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="49"/>
+    </row>
+    <row r="21" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59">
         <v>17</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="52"/>
-    </row>
-    <row r="22" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="59">
         <v>18</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="52"/>
-    </row>
-    <row r="23" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62">
+      <c r="B22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="59">
         <v>19</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="52"/>
-    </row>
-    <row r="24" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62">
+      <c r="B23" s="44"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="49"/>
+    </row>
+    <row r="24" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59">
         <v>20</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="52"/>
-    </row>
-    <row r="25" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62">
+      <c r="B24" s="44"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59">
         <v>21</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="52"/>
-    </row>
-    <row r="26" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62">
+      <c r="B25" s="44"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="49"/>
+    </row>
+    <row r="26" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59">
         <v>22</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="52"/>
-    </row>
-    <row r="27" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62">
+      <c r="B26" s="44"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="49"/>
+    </row>
+    <row r="27" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59">
         <v>23</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="52"/>
-    </row>
-    <row r="28" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62">
+      <c r="B27" s="44"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="49"/>
+    </row>
+    <row r="28" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="59">
         <v>24</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="52"/>
-    </row>
-    <row r="29" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62">
+      <c r="B28" s="44"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="49"/>
+    </row>
+    <row r="29" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="59">
         <v>25</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="52"/>
-    </row>
-    <row r="30" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62">
+      <c r="B29" s="44"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="49"/>
+    </row>
+    <row r="30" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59">
         <v>26</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="52"/>
-    </row>
-    <row r="31" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="62">
+      <c r="B30" s="44"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="49"/>
+    </row>
+    <row r="31" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="59">
         <v>27</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="52"/>
-    </row>
-    <row r="32" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62">
+      <c r="B31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+    </row>
+    <row r="32" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="59">
         <v>28</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="52"/>
-    </row>
-    <row r="33" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62">
+      <c r="B32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="49"/>
+    </row>
+    <row r="33" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="59">
         <v>29</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="52"/>
-    </row>
-    <row r="34" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="62">
+      <c r="B33" s="44"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="49"/>
+    </row>
+    <row r="34" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="59">
         <v>30</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="52"/>
-    </row>
-    <row r="35" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62">
+      <c r="B34" s="44"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="49"/>
+    </row>
+    <row r="35" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="59">
         <v>31</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="52"/>
-    </row>
-    <row r="36" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62">
+      <c r="B35" s="44"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
+    </row>
+    <row r="36" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="59">
         <v>32</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="52"/>
-    </row>
-    <row r="37" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="62">
+      <c r="B36" s="44"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="49"/>
+    </row>
+    <row r="37" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="59">
         <v>33</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="52"/>
-    </row>
-    <row r="38" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="62">
+      <c r="B37" s="44"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="49"/>
+    </row>
+    <row r="38" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="59">
         <v>34</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="52"/>
-    </row>
-    <row r="39" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="62">
+      <c r="B38" s="44"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="49"/>
+    </row>
+    <row r="39" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="59">
         <v>35</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="52"/>
-    </row>
-    <row r="40" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="62">
+      <c r="B39" s="44"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="49"/>
+    </row>
+    <row r="40" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="59">
         <v>36</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="52"/>
-    </row>
-    <row r="41" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="62">
+      <c r="B40" s="44"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="49"/>
+    </row>
+    <row r="41" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="59">
         <v>37</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="52"/>
-    </row>
-    <row r="42" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62">
+      <c r="B41" s="44"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="49"/>
+    </row>
+    <row r="42" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59">
         <v>38</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="52"/>
-    </row>
-    <row r="43" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="62">
+      <c r="B42" s="44"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="49"/>
+    </row>
+    <row r="43" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="59">
         <v>39</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="52"/>
-    </row>
-    <row r="44" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="62">
+      <c r="B43" s="44"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="49"/>
+    </row>
+    <row r="44" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="59">
         <v>40</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="52"/>
-    </row>
-    <row r="45" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="62">
+      <c r="B44" s="44"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="49"/>
+    </row>
+    <row r="45" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="59">
         <v>41</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="52"/>
-    </row>
-    <row r="46" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62">
+      <c r="B45" s="44"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="49"/>
+    </row>
+    <row r="46" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="59">
         <v>42</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="52"/>
-    </row>
-    <row r="47" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="62">
+      <c r="B46" s="44"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="49"/>
+    </row>
+    <row r="47" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="59">
         <v>43</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="52"/>
-    </row>
-    <row r="48" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="62">
+      <c r="B47" s="44"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="49"/>
+    </row>
+    <row r="48" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="59">
         <v>44</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="52"/>
-    </row>
-    <row r="49" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62">
+      <c r="B48" s="44"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="49"/>
+    </row>
+    <row r="49" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="59">
         <v>45</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="52"/>
-    </row>
-    <row r="50" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="62">
+      <c r="B49" s="44"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="49"/>
+    </row>
+    <row r="50" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="59">
         <v>46</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="52"/>
-    </row>
-    <row r="51" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="62">
+      <c r="B50" s="44"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="49"/>
+    </row>
+    <row r="51" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="59">
         <v>47</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="52"/>
-    </row>
-    <row r="52" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="62">
+      <c r="B51" s="44"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="49"/>
+    </row>
+    <row r="52" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="59">
         <v>48</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="52"/>
-    </row>
-    <row r="53" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="62">
+      <c r="B52" s="44"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="49"/>
+    </row>
+    <row r="53" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="59">
         <v>49</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="52"/>
-    </row>
-    <row r="54" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="62">
+      <c r="B53" s="44"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="49"/>
+    </row>
+    <row r="54" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="59">
         <v>50</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="52"/>
-    </row>
-    <row r="55" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="62">
+      <c r="B54" s="44"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="49"/>
+    </row>
+    <row r="55" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="59">
         <v>51</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="52"/>
-    </row>
-    <row r="56" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62">
+      <c r="B55" s="44"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="49"/>
+    </row>
+    <row r="56" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="59">
         <v>52</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
-      <c r="T56" s="52"/>
-    </row>
-    <row r="57" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="62">
+      <c r="B56" s="44"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="49"/>
+    </row>
+    <row r="57" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="59">
         <v>53</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="52"/>
-    </row>
-    <row r="58" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="62">
+      <c r="B57" s="44"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="49"/>
+    </row>
+    <row r="58" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="59">
         <v>54</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="52"/>
-    </row>
-    <row r="59" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="62">
+      <c r="B58" s="44"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="49"/>
+    </row>
+    <row r="59" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="59">
         <v>55</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="52"/>
-    </row>
-    <row r="60" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="62">
+      <c r="B59" s="44"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="49"/>
+    </row>
+    <row r="60" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="59">
         <v>56</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="52"/>
-    </row>
-    <row r="61" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="62">
+      <c r="B60" s="44"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="49"/>
+    </row>
+    <row r="61" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="59">
         <v>57</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="51"/>
-      <c r="T61" s="52"/>
-    </row>
-    <row r="62" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="62">
+      <c r="B61" s="44"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="49"/>
+    </row>
+    <row r="62" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="59">
         <v>58</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="52"/>
-    </row>
-    <row r="63" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="62">
+      <c r="B62" s="44"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="49"/>
+    </row>
+    <row r="63" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="59">
         <v>59</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="52"/>
-    </row>
-    <row r="64" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="62">
+      <c r="B63" s="44"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="49"/>
+    </row>
+    <row r="64" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="59">
         <v>60</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="52"/>
-    </row>
-    <row r="65" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="62">
+      <c r="B64" s="44"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="49"/>
+    </row>
+    <row r="65" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="59">
         <v>61</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="52"/>
-    </row>
-    <row r="66" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="62">
+      <c r="B65" s="44"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="49"/>
+    </row>
+    <row r="66" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="59">
         <v>62</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="47"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="52"/>
-    </row>
-    <row r="67" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="62">
+      <c r="B66" s="44"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="49"/>
+    </row>
+    <row r="67" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="59">
         <v>63</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="52"/>
-    </row>
-    <row r="68" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="62">
+      <c r="B67" s="44"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="49"/>
+    </row>
+    <row r="68" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="59">
         <v>64</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="47"/>
-      <c r="R68" s="51"/>
-      <c r="S68" s="51"/>
-      <c r="T68" s="52"/>
-    </row>
-    <row r="69" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62">
+      <c r="B68" s="44"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="49"/>
+    </row>
+    <row r="69" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="59">
         <v>65</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="51"/>
-      <c r="T69" s="52"/>
-    </row>
-    <row r="70" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="62">
+      <c r="B69" s="44"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="49"/>
+    </row>
+    <row r="70" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="59">
         <v>66</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="51"/>
-      <c r="S70" s="51"/>
-      <c r="T70" s="52"/>
-    </row>
-    <row r="71" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="62">
+      <c r="B70" s="44"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="49"/>
+    </row>
+    <row r="71" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="59">
         <v>67</v>
       </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="51"/>
-      <c r="S71" s="51"/>
-      <c r="T71" s="52"/>
-    </row>
-    <row r="72" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="62">
+      <c r="B71" s="44"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="48"/>
+      <c r="S71" s="48"/>
+      <c r="T71" s="49"/>
+    </row>
+    <row r="72" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="59">
         <v>68</v>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="51"/>
-      <c r="S72" s="51"/>
-      <c r="T72" s="52"/>
-    </row>
-    <row r="73" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="62">
+      <c r="B72" s="44"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="48"/>
+      <c r="S72" s="48"/>
+      <c r="T72" s="49"/>
+    </row>
+    <row r="73" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="59">
         <v>69</v>
       </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="51"/>
-      <c r="S73" s="51"/>
-      <c r="T73" s="52"/>
-    </row>
-    <row r="74" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="62">
+      <c r="B73" s="44"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="49"/>
+    </row>
+    <row r="74" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="59">
         <v>70</v>
       </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="51"/>
-      <c r="S74" s="51"/>
-      <c r="T74" s="52"/>
-    </row>
-    <row r="75" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="62">
+      <c r="B74" s="44"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="48"/>
+      <c r="S74" s="48"/>
+      <c r="T74" s="49"/>
+    </row>
+    <row r="75" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="59">
         <v>71</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="51"/>
-      <c r="S75" s="51"/>
-      <c r="T75" s="52"/>
-    </row>
-    <row r="76" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="62">
+      <c r="B75" s="44"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="49"/>
+    </row>
+    <row r="76" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="59">
         <v>72</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="51"/>
-      <c r="S76" s="51"/>
-      <c r="T76" s="52"/>
-    </row>
-    <row r="77" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="62">
+      <c r="B76" s="44"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="49"/>
+    </row>
+    <row r="77" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="59">
         <v>73</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="51"/>
-      <c r="S77" s="51"/>
-      <c r="T77" s="52"/>
-    </row>
-    <row r="78" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="62">
+      <c r="B77" s="44"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="48"/>
+      <c r="S77" s="48"/>
+      <c r="T77" s="49"/>
+    </row>
+    <row r="78" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="59">
         <v>74</v>
       </c>
-      <c r="B78" s="47"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-      <c r="T78" s="52"/>
-    </row>
-    <row r="79" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="62">
+      <c r="B78" s="44"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="48"/>
+      <c r="S78" s="48"/>
+      <c r="T78" s="49"/>
+    </row>
+    <row r="79" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="59">
         <v>75</v>
       </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="51"/>
-      <c r="S79" s="51"/>
-      <c r="T79" s="52"/>
-    </row>
-    <row r="80" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="62">
+      <c r="B79" s="44"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="48"/>
+      <c r="S79" s="48"/>
+      <c r="T79" s="49"/>
+    </row>
+    <row r="80" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="59">
         <v>76</v>
       </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="51"/>
-      <c r="S80" s="51"/>
-      <c r="T80" s="52"/>
-    </row>
-    <row r="81" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="62">
+      <c r="B80" s="44"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="49"/>
+    </row>
+    <row r="81" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="59">
         <v>77</v>
       </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="47"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="47"/>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="47"/>
-      <c r="R81" s="51"/>
-      <c r="S81" s="51"/>
-      <c r="T81" s="52"/>
-    </row>
-    <row r="82" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="62">
+      <c r="B81" s="44"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="49"/>
+    </row>
+    <row r="82" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="59">
         <v>78</v>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
-      <c r="R82" s="51"/>
-      <c r="S82" s="51"/>
-      <c r="T82" s="52"/>
-    </row>
-    <row r="83" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="62">
+      <c r="B82" s="44"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="48"/>
+      <c r="T82" s="49"/>
+    </row>
+    <row r="83" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="59">
         <v>79</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
-      <c r="R83" s="51"/>
-      <c r="S83" s="51"/>
-      <c r="T83" s="52"/>
-    </row>
-    <row r="84" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="62">
+      <c r="B83" s="44"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="48"/>
+      <c r="S83" s="48"/>
+      <c r="T83" s="49"/>
+    </row>
+    <row r="84" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="59">
         <v>80</v>
       </c>
-      <c r="B84" s="47"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="47"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="47"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="47"/>
-      <c r="R84" s="51"/>
-      <c r="S84" s="51"/>
-      <c r="T84" s="52"/>
-    </row>
-    <row r="85" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="62">
+      <c r="B84" s="44"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="48"/>
+      <c r="S84" s="48"/>
+      <c r="T84" s="49"/>
+    </row>
+    <row r="85" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="59">
         <v>81</v>
       </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="47"/>
-      <c r="K85" s="47"/>
-      <c r="L85" s="47"/>
-      <c r="M85" s="47"/>
-      <c r="N85" s="47"/>
-      <c r="O85" s="47"/>
-      <c r="P85" s="47"/>
-      <c r="Q85" s="47"/>
-      <c r="R85" s="51"/>
-      <c r="S85" s="51"/>
-      <c r="T85" s="52"/>
-    </row>
-    <row r="86" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="62">
+      <c r="B85" s="44"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="48"/>
+      <c r="T85" s="49"/>
+    </row>
+    <row r="86" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="59">
         <v>82</v>
       </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="47"/>
-      <c r="P86" s="47"/>
-      <c r="Q86" s="47"/>
-      <c r="R86" s="51"/>
-      <c r="S86" s="51"/>
-      <c r="T86" s="52"/>
-    </row>
-    <row r="87" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="62">
+      <c r="B86" s="44"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="48"/>
+      <c r="S86" s="48"/>
+      <c r="T86" s="49"/>
+    </row>
+    <row r="87" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="59">
         <v>83</v>
       </c>
-      <c r="B87" s="47"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="47"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="47"/>
-      <c r="N87" s="47"/>
-      <c r="O87" s="47"/>
-      <c r="P87" s="47"/>
-      <c r="Q87" s="47"/>
-      <c r="R87" s="51"/>
-      <c r="S87" s="51"/>
-      <c r="T87" s="52"/>
-    </row>
-    <row r="88" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="62">
+      <c r="B87" s="44"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="48"/>
+      <c r="S87" s="48"/>
+      <c r="T87" s="49"/>
+    </row>
+    <row r="88" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="59">
         <v>84</v>
       </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="46"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="47"/>
-      <c r="P88" s="47"/>
-      <c r="Q88" s="47"/>
-      <c r="R88" s="51"/>
-      <c r="S88" s="51"/>
-      <c r="T88" s="52"/>
-    </row>
-    <row r="89" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="62">
+      <c r="B88" s="44"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="49"/>
+    </row>
+    <row r="89" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="59">
         <v>85</v>
       </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="47"/>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="47"/>
-      <c r="R89" s="51"/>
-      <c r="S89" s="51"/>
-      <c r="T89" s="52"/>
-    </row>
-    <row r="90" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="62">
+      <c r="B89" s="44"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="48"/>
+      <c r="S89" s="48"/>
+      <c r="T89" s="49"/>
+    </row>
+    <row r="90" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="59">
         <v>86</v>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="47"/>
-      <c r="O90" s="47"/>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="47"/>
-      <c r="R90" s="51"/>
-      <c r="S90" s="51"/>
-      <c r="T90" s="52"/>
-    </row>
-    <row r="91" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="62">
+      <c r="B90" s="44"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="48"/>
+      <c r="S90" s="48"/>
+      <c r="T90" s="49"/>
+    </row>
+    <row r="91" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="59">
         <v>87</v>
       </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="47"/>
-      <c r="L91" s="47"/>
-      <c r="M91" s="47"/>
-      <c r="N91" s="47"/>
-      <c r="O91" s="47"/>
-      <c r="P91" s="47"/>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="51"/>
-      <c r="S91" s="51"/>
-      <c r="T91" s="52"/>
-    </row>
-    <row r="92" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="62">
+      <c r="B91" s="44"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="49"/>
+    </row>
+    <row r="92" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="59">
         <v>88</v>
       </c>
-      <c r="B92" s="47"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="51"/>
-      <c r="S92" s="51"/>
-      <c r="T92" s="52"/>
-    </row>
-    <row r="93" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="62">
+      <c r="B92" s="44"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="49"/>
+    </row>
+    <row r="93" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="59">
         <v>89</v>
       </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="51"/>
-      <c r="S93" s="51"/>
-      <c r="T93" s="52"/>
-    </row>
-    <row r="94" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="62">
+      <c r="B93" s="44"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="49"/>
+    </row>
+    <row r="94" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="59">
         <v>90</v>
       </c>
-      <c r="B94" s="47"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="47"/>
-      <c r="P94" s="47"/>
-      <c r="Q94" s="47"/>
-      <c r="R94" s="51"/>
-      <c r="S94" s="51"/>
-      <c r="T94" s="52"/>
-    </row>
-    <row r="95" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="62">
+      <c r="B94" s="44"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="49"/>
+    </row>
+    <row r="95" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="59">
         <v>91</v>
       </c>
-      <c r="B95" s="47"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="47"/>
-      <c r="P95" s="47"/>
-      <c r="Q95" s="47"/>
-      <c r="R95" s="51"/>
-      <c r="S95" s="51"/>
-      <c r="T95" s="52"/>
-    </row>
-    <row r="96" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="62">
+      <c r="B95" s="44"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="49"/>
+    </row>
+    <row r="96" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="59">
         <v>92</v>
       </c>
-      <c r="B96" s="47"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="47"/>
-      <c r="N96" s="47"/>
-      <c r="O96" s="47"/>
-      <c r="P96" s="47"/>
-      <c r="Q96" s="47"/>
-      <c r="R96" s="51"/>
-      <c r="S96" s="51"/>
-      <c r="T96" s="52"/>
-    </row>
-    <row r="97" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="62">
+      <c r="B96" s="44"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="48"/>
+      <c r="T96" s="49"/>
+    </row>
+    <row r="97" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="59">
         <v>93</v>
       </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-      <c r="L97" s="47"/>
-      <c r="M97" s="47"/>
-      <c r="N97" s="47"/>
-      <c r="O97" s="47"/>
-      <c r="P97" s="47"/>
-      <c r="Q97" s="47"/>
-      <c r="R97" s="51"/>
-      <c r="S97" s="51"/>
-      <c r="T97" s="52"/>
-    </row>
-    <row r="98" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="62">
+      <c r="B97" s="44"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="44"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="48"/>
+      <c r="T97" s="49"/>
+    </row>
+    <row r="98" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="59">
         <v>94</v>
       </c>
-      <c r="B98" s="47"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
-      <c r="M98" s="47"/>
-      <c r="N98" s="47"/>
-      <c r="O98" s="47"/>
-      <c r="P98" s="47"/>
-      <c r="Q98" s="47"/>
-      <c r="R98" s="51"/>
-      <c r="S98" s="51"/>
-      <c r="T98" s="52"/>
-    </row>
-    <row r="99" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="62">
+      <c r="B98" s="44"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="44"/>
+      <c r="O98" s="44"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="48"/>
+      <c r="S98" s="48"/>
+      <c r="T98" s="49"/>
+    </row>
+    <row r="99" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="59">
         <v>95</v>
       </c>
-      <c r="B99" s="47"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47"/>
-      <c r="L99" s="47"/>
-      <c r="M99" s="47"/>
-      <c r="N99" s="47"/>
-      <c r="O99" s="47"/>
-      <c r="P99" s="47"/>
-      <c r="Q99" s="47"/>
-      <c r="R99" s="51"/>
-      <c r="S99" s="51"/>
-      <c r="T99" s="52"/>
-    </row>
-    <row r="100" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="62">
+      <c r="B99" s="44"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="44"/>
+      <c r="O99" s="44"/>
+      <c r="P99" s="44"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="48"/>
+      <c r="S99" s="48"/>
+      <c r="T99" s="49"/>
+    </row>
+    <row r="100" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="59">
         <v>96</v>
       </c>
-      <c r="B100" s="47"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="47"/>
-      <c r="L100" s="47"/>
-      <c r="M100" s="47"/>
-      <c r="N100" s="47"/>
-      <c r="O100" s="47"/>
-      <c r="P100" s="47"/>
-      <c r="Q100" s="47"/>
-      <c r="R100" s="51"/>
-      <c r="S100" s="51"/>
-      <c r="T100" s="52"/>
-    </row>
-    <row r="101" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="62">
+      <c r="B100" s="44"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="44"/>
+      <c r="M100" s="44"/>
+      <c r="N100" s="44"/>
+      <c r="O100" s="44"/>
+      <c r="P100" s="44"/>
+      <c r="Q100" s="44"/>
+      <c r="R100" s="48"/>
+      <c r="S100" s="48"/>
+      <c r="T100" s="49"/>
+    </row>
+    <row r="101" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="59">
         <v>97</v>
       </c>
-      <c r="B101" s="47"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="47"/>
-      <c r="K101" s="47"/>
-      <c r="L101" s="47"/>
-      <c r="M101" s="47"/>
-      <c r="N101" s="47"/>
-      <c r="O101" s="47"/>
-      <c r="P101" s="47"/>
-      <c r="Q101" s="47"/>
-      <c r="R101" s="51"/>
-      <c r="S101" s="51"/>
-      <c r="T101" s="52"/>
-    </row>
-    <row r="102" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="62">
+      <c r="B101" s="44"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="44"/>
+      <c r="M101" s="44"/>
+      <c r="N101" s="44"/>
+      <c r="O101" s="44"/>
+      <c r="P101" s="44"/>
+      <c r="Q101" s="44"/>
+      <c r="R101" s="48"/>
+      <c r="S101" s="48"/>
+      <c r="T101" s="49"/>
+    </row>
+    <row r="102" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="59">
         <v>98</v>
       </c>
-      <c r="B102" s="47"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="49"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="47"/>
-      <c r="L102" s="47"/>
-      <c r="M102" s="47"/>
-      <c r="N102" s="47"/>
-      <c r="O102" s="47"/>
-      <c r="P102" s="47"/>
-      <c r="Q102" s="47"/>
-      <c r="R102" s="51"/>
-      <c r="S102" s="51"/>
-      <c r="T102" s="52"/>
-    </row>
-    <row r="103" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="62">
+      <c r="B102" s="44"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="44"/>
+      <c r="N102" s="44"/>
+      <c r="O102" s="44"/>
+      <c r="P102" s="44"/>
+      <c r="Q102" s="44"/>
+      <c r="R102" s="48"/>
+      <c r="S102" s="48"/>
+      <c r="T102" s="49"/>
+    </row>
+    <row r="103" spans="1:20" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="59">
         <v>99</v>
       </c>
-      <c r="B103" s="47"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="47"/>
-      <c r="L103" s="47"/>
-      <c r="M103" s="47"/>
-      <c r="N103" s="47"/>
-      <c r="O103" s="47"/>
-      <c r="P103" s="47"/>
-      <c r="Q103" s="47"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
-      <c r="T103" s="52"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="44"/>
+      <c r="M103" s="44"/>
+      <c r="N103" s="44"/>
+      <c r="O103" s="44"/>
+      <c r="P103" s="44"/>
+      <c r="Q103" s="44"/>
+      <c r="R103" s="48"/>
+      <c r="S103" s="48"/>
+      <c r="T103" s="49"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="62">
+      <c r="A104" s="59">
         <v>100</v>
       </c>
-      <c r="B104" s="45"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="49"/>
-      <c r="J104" s="47"/>
-      <c r="K104" s="47"/>
-      <c r="L104" s="47"/>
-      <c r="M104" s="47"/>
-      <c r="N104" s="47"/>
-      <c r="O104" s="47"/>
-      <c r="P104" s="47"/>
-      <c r="Q104" s="47"/>
-      <c r="R104" s="51"/>
-      <c r="S104" s="51"/>
-      <c r="T104" s="44"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="44"/>
+      <c r="N104" s="44"/>
+      <c r="O104" s="44"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="48"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="41"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0"/>
@@ -5104,10 +5138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5133,18 +5167,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="22" t="s">
         <v>21</v>
       </c>
@@ -5153,32 +5187,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="38">
+      <c r="B6" s="140"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5189,10 +5223,10 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="117"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
@@ -5201,21 +5235,21 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="74">
+      <c r="B10" s="119"/>
+      <c r="C10" s="71">
         <v>11</v>
       </c>
       <c r="D10" s="28">
@@ -5223,461 +5257,472 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="116" t="s">
+    <row r="13" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="127"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="22" t="s">
+      <c r="B15" s="121"/>
+      <c r="C15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="133" t="s">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="36" t="s">
+      <c r="B16" s="142"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="101" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="135" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="37">
+      <c r="B17" s="144"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="102">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="118" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="26">
+      <c r="B18" s="123"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="119" t="s">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="40">
+      <c r="B19" s="125"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="137" t="s">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="23" t="s">
+      <c r="B21" s="146"/>
+      <c r="C21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D21" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="20">
+      <c r="B22" s="130"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="106" t="s">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="25" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="107" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="21">
+      <c r="B24" s="111"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="147" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="147"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="41">
+      <c r="B25" s="156"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="150" t="s">
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="23" t="s">
+      <c r="B29" s="146"/>
+      <c r="C29" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D29" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="141" t="s">
+    <row r="30" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="34" t="s">
+      <c r="B30" s="150"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="151" t="s">
+    <row r="31" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="152"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="32">
+      <c r="B31" s="162"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="153" t="s">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="16">
+      <c r="B32" s="164"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="155" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="156"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="17">
+      <c r="B33" s="166"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="139" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="140"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="42">
+      <c r="B34" s="148"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
+        <v>24</v>
+      </c>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="7" t="s">
+      <c r="A39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
+        <v>26</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
+        <v>75</v>
+      </c>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="95"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="13" t="s">
+      <c r="B45" s="97"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="15" t="s">
+      <c r="B46" s="99"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="137" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="23" t="s">
+      <c r="B48" s="146"/>
+      <c r="C48" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D48" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="123" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="124"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="33">
+      <c r="B49" s="132"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="125" t="s">
+    <row r="50" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="24">
+      <c r="B50" s="134"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="127" t="s">
+    <row r="51" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="128"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="18">
+      <c r="B51" s="136"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="145" t="s">
+    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="146"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="19">
+      <c r="B52" s="154"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="148" t="s">
+    <row r="53" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="149"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="43" t="s">
+      <c r="B53" s="158"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+G7Ib2womvoK60VKWfMsoOnOnHSZBPOF2t8fEiS714hI6y1Nq+KnxQjaD2qYQZSkXK9haaEIFf+mbabKOzqAkw==" saltValue="bUk+Dbz45DIX4zhYiGhzrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
-  <mergeCells count="34">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A24:B24"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7Z+FGr8FJFbT+yZ5HNT0waLpCPqDUBEV97T2bAb+YlL+lrVRAaYbZPgT4V0sPd6Qq6O7KG3UrqpQy8PdHQQISQ==" saltValue="y+obxMmGlRLllGjWjM63/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <mergeCells count="35">
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A27" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
